--- a/Modèle+analyse+SEO+et+accessibilité.xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t xml:space="preserve">Categorie</t>
   </si>
@@ -127,6 +127,27 @@
   </si>
   <si>
     <t xml:space="preserve">div class=’’col-sm-3 ‘’ invisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css dans le html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div cachée « keyword »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de liens On-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter des lien on-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renommer les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre du texte à la place de certaines images</t>
   </si>
 </sst>
 </file>
@@ -535,10 +556,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,11 +745,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
